--- a/ig/ch-epr-term/ValueSet-EprRole.xlsx
+++ b/ig/ch-epr-term/ValueSet-EprRole.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.8</t>
+    <t>2.0.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T08:04:16+01:00</t>
+    <t>2023-06-27T18:08:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,7 +96,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>CC-BY-SA-4.0</t>
+    <t>CC0-1.0</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -278,10 +278,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ig/ch-epr-term/ValueSet-EprRole.xlsx
+++ b/ig/ch-epr-term/ValueSet-EprRole.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:2.16.756.5.30.1.127.3.10.15.1 (use: OFFICIAL)</t>
+    <t>id: Uniform Resource Identifier (URI)#urn:oid:2.16.756.5.30.1.127.3.10.15.1 (use: OFFICIAL)</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.0.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T18:08:17+02:00</t>
+    <t>2023-12-19T12:39:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
